--- a/dist/checklists/core/xlsx/dwc/general/sc_rnaseq_dwc_core.xlsx
+++ b/dist/checklists/core/xlsx/dwc/general/sc_rnaseq_dwc_core.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="381">
   <si>
     <t>Study ID</t>
   </si>
@@ -1712,7 +1712,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1735,22 +1735,21 @@
     <col min="16" max="16" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="48.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="48.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1805,47 +1804,44 @@
       <c r="R1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>4</v>
+      <c r="S1" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="AC1" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="AD1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:30">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -1901,46 +1897,43 @@
         <v>118</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE2" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -1996,46 +1989,43 @@
         <v>119</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE3" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2068,14 +2058,13 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:AE4"/>
+    <mergeCell ref="A4:AD4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AE4">
+  <conditionalFormatting sqref="A1:AD4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
